--- a/webscrapping/src/test/resources/Eliminated_List2.xlsx
+++ b/webscrapping/src/test/resources/Eliminated_List2.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\eclipse-workspace\webscrapping\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9CF05-E8F3-45EA-A246-D014075623EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A4A8B-A95C-4CB8-AC8D-FA8F98ABCF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F34155E5-6A8B-4E39-8975-29262B9CAC9B}"/>
   </bookViews>
   <sheets>
     <sheet name="diabetic_list" sheetId="5" r:id="rId1"/>
     <sheet name="diabetic_eliminated" sheetId="10" r:id="rId2"/>
+    <sheet name="allergy_eliminated" sheetId="15" r:id="rId3"/>
+    <sheet name="To_add" sheetId="16" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
   <si>
     <t>Jain Diabetic</t>
   </si>
@@ -268,13 +274,506 @@
   </si>
   <si>
     <t>Non Veg Daibetic</t>
+  </si>
+  <si>
+    <t>Recipe ID</t>
+  </si>
+  <si>
+    <t>Recipe Name</t>
+  </si>
+  <si>
+    <t>Page Title</t>
+  </si>
+  <si>
+    <t>Vegan Diabetic Food Category</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>RecipePrepTime</t>
+  </si>
+  <si>
+    <t>RecipeCookTime</t>
+  </si>
+  <si>
+    <t>Preparation Method</t>
+  </si>
+  <si>
+    <t>Nutrient values</t>
+  </si>
+  <si>
+    <t>Targetted morbid conditions (Diabeties/Hypertension/Hypothyroidism)</t>
+  </si>
+  <si>
+    <t>Recipe URL</t>
+  </si>
+  <si>
+    <t>Palak Shorba, Diabetic Friendly</t>
+  </si>
+  <si>
+    <t>Palak Shorba, Diabetic Friendly recipe, Palak Shorba</t>
+  </si>
+  <si>
+    <t>4 cups chopped spinach (palak)
+2 tbsp mint leaves (phudina)
+2 to 3 green chillies
+1 cup low fat milk (99.7% fat-free)
+salt to taste
+1 tsp freshly ground black pepper (kalimirch)
+1 tsp lemon juice
+1 tbsp ghee
+1 tbsp crushed garlic (lehsun)
+For The Garnish
+1 tbsp ginger (adrak) juliennes</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Method
+Boil 2 cups of water in a deep pan, add the spinach and cook for 3 to 4 minutes and keep aside and allow to cool.
+When cool, add the mint leaves and green chillies and blend in a mixer to a smooth purée.
+Transfer it into a pan, add the milk and bring to boil.
+Add the salt, pepper and lemon juice and mix well.
+For the tempering, heat the ghee in a small pan, add the garlic and sauté over a medium flame till it turns golden brown in colour, while stirring continuously.
+Add this tempering to the spinach mixture. Mix well and simmer for another 2 to 3 minutes.
+Serve hot garnished with ginger juliennes.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 107 cal
+Protein 3.5 g
+Carbohydrates 4.7 g
+Fiber 1.7 g
+Fat 7 g
+Cholesterol 8 mg
+Sodium 49.6 mg
+Click here to view calories for Palak Shorba, Diabetic Friendly</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/palak-shorba-diabetic-friendly-33772r</t>
+  </si>
+  <si>
+    <t>veg puff recipe | bakery style veg puff | Indina veg patties | homemade veg puff pastry |</t>
+  </si>
+  <si>
+    <t>For Veg Puff
+2 cups plain flour (maida)
+1 tsp salt
+1 1/2 tsp gluten
+1 1/2 tsp vinegar
+3/4 cup lily puff margarine
+plain flour (maida) for rolling and dusting
+milk for brushing
+For The Veg Filling
+2 tbsp green peas
+1/4 cup finely chopped carrot
+1/4 cup finely chopped french beans
+1/2 cup boiled , peeled and mashed potatoes
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1/2 tsp cumin seeds (jeera)
+1/4 cup finely chopped onions
+1 tsp ginger-garlic (adrak-lehsun) paste
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp garam masala
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+1/2 tsp lemon juice
+For Serving
+tomato ketchup
+mustard sauce</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the veg filling
+Heat the oil in a broad non-stick pan, add the mustard seeds and cumin seeds.
+When the seeds crackle, add the onions and ginger-garlic paste and sauté on a medium flame for 1 minute.
+Add the turmeric powder, chilli powder and garam masala and sauté on a medium flame for 30 seconds.
+Add the green peas, carrot, french beans and 1 tbsp of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the potatoes, coriander, salt and lemon juice, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Divide the filling into 6 equal portions and keep aside.
+How to proceed
+Combine the plain flour, salt, gluten and vinegar in a deep bowl, mix well and knead into a stiff dough using approx. ½ cup of ice cold water. Make sure you knead the dough for 15 to 20 minutes till it is smooth and glossy.
+Dust the flat surface with a little plain flour. Place the dough on it and roll it using a thick rolling pin into a 250 mm. (10”) × 150 mm. (6”) rectangle.
+Spread the margarine on 2/3 portion of the rectangle with your hands.
+Fold the portion with no margarine side till the centre and then fold the margarine portion over it so that both the portions overlap each other.
+Press and seal the two open sides using your finger tips.
+Dust the flat surface again with a little plain flour. Place the dough on it and again roll it using a thick rolling pin into a 300 mm. (12”) × 150 mm. (6”) rectangle.
+Again fold one side of the rectangle till the centre, then fold the other side overlapping the first side. Make sure the edges are also overlapping each other perfectly.
+Repeat steps 6 and 7 one more time.
+Dust the flat surface once again with a little plain flour. Place the dough on it and roll it using a thick rolling pin into a 300 mm. (12”) × 150 mm. (6”) rectangle.
+Now bring both the sides together in the centre but do not overlap them.
+Overlap the two folded sides over each other to form a book.
+Wrap in a cling wrap and keep refrigerated for 15 minutes.
+Remove the cling wrap and cut into 2 halves horizontally.
+Dust the flat surface once again with a little plain flour. Place one halve of the dough on it and roll it using a thick rolling pin into a 250 mm. (10”) × 150 mm. (6”) rectangle.
+Cut it into 3 equal pieces.
+Repeat step 14 and 15 to make 3 more pieces using the other halve of the dough.
+Place one rectangle on a clean, dry surface and place a portion of the veg filling on one half of the rectangle.
+Apple little milk on all the sides and fold over the other half of the rectangle so as to cover the filling. Seal the edges by using your fingertips so that the filling does not spill out.
+Trim and even the sides lightly using a sharp knife.
+Repeat steps 17 to 19 to make 5 more puffs.
+Bake in a pre-heated oven at 220°c( 440°f) for 15 minutes.
+Turn the tray and bake again at 220°c( 440°f) for 4 minutes.
+Then lower the temperature to 160°c (360°f) and bake for 10 minutes.
+Serve hot with tomato ketchup and mustard sauce.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per puff
+Energy 170 cal
+Protein 5.1 g
+Carbohydrates 31 g
+Fiber 0.9 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 460.1 mg
+Click here to view calories for Veg Puff</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/veg-puff-40842r</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>Fresh Garlic Chutney ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>Fresh Garlic Chutney ( Non- Fried Snacks ) recipe</t>
+  </si>
+  <si>
+    <t>3/4 cup roughly chopped garlic (lehsun)
+1 tbsp chilli powder
+1 tsp tamarind (imli) pulp
+2 tsp coriander (dhania) powder
+1/2 tbsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients along with ¼ cup of water in a mixer, mix well and blend to a smooth paste.
+Keep refrigerated and use as required.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per tbsp
+Energy 15 cal
+Protein 0.7 g
+Carbohydrates 2.7 g
+Fiber 0.6 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 1.1 mg
+Click here to view calories for Fresh Garlic Chutney ( Non- Fried Snacks )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fresh-garlic-chutney--non--fried-snacks--33330r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jowar kale palak salad recipe | spinach, capsicum, alfalfa sprouts salad | healthy jowar vegetable salad | </t>
+  </si>
+  <si>
+    <t>jowar kale palak salad recipe | spinach, capsicum, alfalfa sprouts salad | healthy jowar vegetable salad | </t>
+  </si>
+  <si>
+    <t>For Jowar Kale Palak Salad
+1/2 cup soaked and cooked whole jowar (white millet)
+1/2 cup kale leaves , torn into pieces
+1/4 cup chopped baby spinach
+1 cup coloured capsicum cubes
+1/2 cup blanched broccoli florets
+1/2 cup mushroom (khumbh) cubes
+1/4 cup alfalfa sprouts
+To Be Mixed Into A Dressing
+2 tsp olive oil
+1/2 tsp lemon juice
+1/4 tsp grated garlic (lehsun)
+1/4 tsp grated ginger (adrak)
+sea salt (khada namak) to taste
+freshly ground black pepper (kalimirch) to taste
+For The Topping
+1 tsp roasted pumpkin seeds</t>
+  </si>
+  <si>
+    <t>Method
+For jowar kale palak salad
+To make jowar kale palak salad, in a bowl put the whole jowar, kale, spinach, coloured capsicum, mushrooms, broccoli and alfalfa sprouts.
+Toss well.
+Add the prepared extra virgin olive oil dressing.
+Just before eating, mix the dressing and toss the pumpkin seeds and toss well.
+Serve jowar kale palak veg antioxidant healthy office salad immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 333 cal
+Protein 9.9 g
+Carbohydrates 48.8 g
+Fiber 9.7 g
+Fat 11.9 g
+Cholesterol 0 mg
+Sodium 24.5 mg
+Click here to view calories for Jowar Kale Palak Veg Antioxidant Healthy Office Salad</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-kale-palak-veg-antioxidant-healthy-office-salad-42308r</t>
+  </si>
+  <si>
+    <t>Rocket Leaves, Broccoli and Veg Work Healthy Salad</t>
+  </si>
+  <si>
+    <t>Rocket Leaves, Broccoli and Veg Work Healthy Salad recipe</t>
+  </si>
+  <si>
+    <t>1 cup arugula leaves , put in cold and then dried
+1/2 cup blanched broccoli florets
+1 cup coloured capsicum cubes
+1/4 cup carrot juliennes
+1/4 cup cucumber strips
+1/2 cup zucchini strips
+1 tbsp alfalfa sprouts
+To Be Mixed Into A Dressing
+2 tsp olive oil
+1 tsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+It can be taken to work in a lunch box with a dressing in a separate small container.
+Just before eating, mix the dressing and toss well. Eat immediately.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per serving
+Energy 163 cal
+Protein 4 g
+Carbohydrates 13.8 g
+Fiber 6.3 g
+Fat 10.8 g
+Cholesterol 0 mg
+Sodium 21.5 mg
+Click here to view calories for Rocket Leaves, Broccoli and Veg Work Healthy Salad</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rocket-leaves-broccoli-and-veg-work-healthy-salad-42297r</t>
+  </si>
+  <si>
+    <t>Mexican Kodri ( Exotic Diabetic Recipe )</t>
+  </si>
+  <si>
+    <t>Mexican Kodri ( Exotic Diabetic Recipe ), Mexican Kodri</t>
+  </si>
+  <si>
+    <t>1/2 cup kodri (varagu)
+2 to 3 garlic (lehsun) cloves, peeled and roughly chopped
+2 tsp dry red chilli flakes (paprika)
+2 tsp oil
+1/2 cup finely chopped spring onions with the greens
+1/2 cup chopped capsicum (red , yellow and green)
+1/2 cup soaked and cooked rajma (kidney beans)
+salt to taste
+2 tbsp finely chopped spring onions greens for the garnish</t>
+  </si>
+  <si>
+    <t>Method
+Clean, wash and soak the kodri for 5 to 7 minutes. Drain and keep aside.
+Boil a vesselful of water, when the water starts boiling add the kodri and ½ tsp oil and simmer for 10 to 12 minutes or till the kodri gets cooked. Drain, refresh using cold water and keep aside.
+Mix the garlic and red chilli flakes together in a mortar-pestle and pound till smooth. Keep aside.
+Heat the oil in a non-stick kadhai, add the garlic and chilli paste and sauté for a minute while stirring continuously.
+Add the onions and capsicum and sauté for 2 to 3 minutes.
+Add the rajma and salt, mix well and cook for a minute.
+Add the kodri, mix well and cook for another 2 to 3 minutes while stirring continuously.
+Serve hot garnished with spring onion greens.
+Handy tip:
+½ cup raw kodri when cooked in enough water, yields 2½ cups of cooked kodri.
+If kodri is not easily available, use dalia instead of kodri.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values 
+Energy 106 calories
+Protein 3.3 gm
+Carbohydrates 16.6 gm
+Fat 2.8 gm
+Vitamin C 24.5 mg
+Calcium 28.6 mg
+Folic acid 2.2 mcg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mexican-kodri--exotic-diabetic-recipe--33745r</t>
+  </si>
+  <si>
+    <t>Sugar Free Date Rolls, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>1/2 tsp ghee
+3/4 cup deseeded and finely chopped black dates (kala khajur)
+1 tbsp chopped almonds (badam)
+1 tbsp chopped pistachios
+1 tbsp chopped walnuts (akhrot)
+2 tbsp poppy seeds (khus-khus) for coating</t>
+  </si>
+  <si>
+    <t>Method
+Heat the ghee in a small non-stick pan, add the dates and cook on a slow flame, while stirring continuously for 5 to 7 minutes or till they turn into a soft lump.
+Remove and add the almonds, pistachio nuts and walnuts and mix well.
+Divide into 6 equal portions and shape each portion into a roll.
+Coat each roll with poppy seeds and refrigerate to set.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Nutrient values (Abbrv) per roll
+Energy 79 cal
+Protein 1.6 g
+Carbohydrates 7.1 g
+Fiber 1.6 g
+Fat 4.8 g
+Cholesterol 0 mg
+Sodium 0 mg
+Click here to view calories for Sugar Free Date Rolls, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sugar-free-date-rolls-healthy-diabetic-recipe-33704r</t>
+  </si>
+  <si>
+    <t>allergy</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Soy</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Sesame</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>walnut</t>
+  </si>
+  <si>
+    <t>almond</t>
+  </si>
+  <si>
+    <t>hazelnut</t>
+  </si>
+  <si>
+    <t>pecan</t>
+  </si>
+  <si>
+    <t>cashew</t>
+  </si>
+  <si>
+    <t>pistachio</t>
+  </si>
+  <si>
+    <t>Shell fish</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>To add</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Pumpkin seeds</t>
+  </si>
+  <si>
+    <t>Flaxseeds</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Lady finger</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>Bitter gaurd</t>
+  </si>
+  <si>
+    <t>Rolled oats</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>quinoa</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Chia sedds</t>
+  </si>
+  <si>
+    <t>raspberries</t>
+  </si>
+  <si>
+    <t>blueberries</t>
+  </si>
+  <si>
+    <t>blackberries</t>
+  </si>
+  <si>
+    <t>strawberries</t>
+  </si>
+  <si>
+    <t>seeds</t>
+  </si>
+  <si>
+    <t>Okra</t>
+  </si>
+  <si>
+    <t>Steel cut oats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,13 +793,51 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -330,10 +867,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,4 +1626,730 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C99907-8683-4A9F-8FD9-16FE22365BF6}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="27.6">
+      <c r="A13" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72BD74B-1EC9-496F-A581-086136459EDA}">
+  <dimension ref="A1:A77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.6">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.6">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.6">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.6">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.6">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.6">
+      <c r="A77" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99ECD39-8956-4033-8C31-7E5E3304663B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>